--- a/dev/Tutorials/3MKT/outputs/3mkt-10.xlsx
+++ b/dev/Tutorials/3MKT/outputs/3mkt-10.xlsx
@@ -16951,7 +16951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17017,25 +17017,40 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>cp_sold</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_revenue</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>avg_price</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>yield</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rasm</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>sys_lf</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>local_pct_leg_pax</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>local_pct_bookings</t>
         </is>
@@ -17080,18 +17095,27 @@
         <v>376.075</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>324.9251075950497</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.1790823097176378</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
+        <v>0.15411446955835</v>
+      </c>
+      <c r="Q2" t="n">
         <v>86.05789695327523</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>48.8984909924882</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
         <v>65.68030430201618</v>
       </c>
     </row>
@@ -17134,18 +17158,27 @@
         <v>375.9375</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>324.8538854408237</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.1789383869835208</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0.1539493000046951</v>
+      </c>
+      <c r="Q3" t="n">
         <v>86.03480929940034</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>48.82593516209477</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
         <v>65.61482057400234</v>
       </c>
     </row>
@@ -49779,7 +49812,7 @@
         <v>250</v>
       </c>
       <c r="F2" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G2" t="n">
         <v>57260</v>
@@ -49815,7 +49848,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>1013.955176526716</v>
+        <v>863.7532821438833</v>
       </c>
       <c r="G3" t="n">
         <v>71765</v>
@@ -49859,7 +49892,7 @@
         <v>375</v>
       </c>
       <c r="F4" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G4" t="n">
         <v>96881</v>
@@ -49895,7 +49928,7 @@
         <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>1828.850979200696</v>
+        <v>1739.79933695373</v>
       </c>
       <c r="G5" t="n">
         <v>123368</v>
@@ -49939,7 +49972,7 @@
         <v>500</v>
       </c>
       <c r="F6" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G6" t="n">
         <v>80393</v>
@@ -49975,7 +50008,7 @@
         <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>2836.153092488361</v>
+        <v>2603.449105297987</v>
       </c>
       <c r="G7" t="n">
         <v>113003</v>

--- a/dev/Tutorials/3MKT/outputs/3mkt-10.xlsx
+++ b/dev/Tutorials/3MKT/outputs/3mkt-10.xlsx
@@ -10,16 +10,17 @@
     <sheet name="bid_price_history" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="carriers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="carrier_history2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="demand_to_come_summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="demands" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="displacement_history" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="fare_class_mix" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="legbuckets" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="legs" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="pathclasses" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="path_legs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="paths" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="segmentation_by_timeframe" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="cp_segmentation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="demand_to_come_summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="demands" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="displacement_history" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="fare_class_mix" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="legbuckets" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="legs" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="pathclasses" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="path_legs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="paths" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="segmentation_by_timeframe" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6973,7 +6974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6984,6 +6985,381 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>leg_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>flt_no</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>orig</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dest</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gt_sold</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gt_capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>gt_sold_local</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>66781</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28422</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11055229.02638947</v>
+      </c>
+      <c r="J2" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>66813</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>28300</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11066202.02416093</v>
+      </c>
+      <c r="J3" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>201</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>66767</v>
+      </c>
+      <c r="G4" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28316</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11046747.19887269</v>
+      </c>
+      <c r="J4" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>202</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>66733</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28231</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11049035.35930686</v>
+      </c>
+      <c r="J5" t="n">
+        <v>863.7532821438833</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>111</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>83819</v>
+      </c>
+      <c r="G6" t="n">
+        <v>96000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>45460</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25319545.97360884</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>112</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>83447</v>
+      </c>
+      <c r="G7" t="n">
+        <v>96000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>44934</v>
+      </c>
+      <c r="I7" t="n">
+        <v>25338347.97583644</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>211</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>83416</v>
+      </c>
+      <c r="G8" t="n">
+        <v>96000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>44965</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25293427.80112508</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>212</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>83834</v>
+      </c>
+      <c r="G9" t="n">
+        <v>96000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>45332</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25312114.64069102</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1739.79933695373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>path_id</t>
         </is>
       </c>
@@ -7030,6 +7406,16 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>gt_sold_by_segment_leisure</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue_by_segment_business</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>gt_revenue_by_segment_leisure</t>
         </is>
       </c>
     </row>
@@ -7072,6 +7458,12 @@
       <c r="J2" t="n">
         <v>1</v>
       </c>
+      <c r="K2" t="n">
+        <v>729200</v>
+      </c>
+      <c r="L2" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
@@ -7110,6 +7502,12 @@
       <c r="J3" t="n">
         <v>81</v>
       </c>
+      <c r="K3" t="n">
+        <v>2261400</v>
+      </c>
+      <c r="L3" t="n">
+        <v>24300</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -7148,6 +7546,12 @@
       <c r="J4" t="n">
         <v>452</v>
       </c>
+      <c r="K4" t="n">
+        <v>729000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>90400</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -7186,6 +7590,12 @@
       <c r="J5" t="n">
         <v>1002</v>
       </c>
+      <c r="K5" t="n">
+        <v>29100</v>
+      </c>
+      <c r="L5" t="n">
+        <v>150300</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -7224,6 +7634,12 @@
       <c r="J6" t="n">
         <v>9084</v>
       </c>
+      <c r="K6" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1135500</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -7262,6 +7678,12 @@
       <c r="J7" t="n">
         <v>4362</v>
       </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>436200</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -7302,6 +7724,12 @@
       <c r="J8" t="n">
         <v>3</v>
       </c>
+      <c r="K8" t="n">
+        <v>727600</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1200</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -7340,6 +7768,12 @@
       <c r="J9" t="n">
         <v>81</v>
       </c>
+      <c r="K9" t="n">
+        <v>2262900</v>
+      </c>
+      <c r="L9" t="n">
+        <v>24300</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -7378,6 +7812,12 @@
       <c r="J10" t="n">
         <v>424</v>
       </c>
+      <c r="K10" t="n">
+        <v>733400</v>
+      </c>
+      <c r="L10" t="n">
+        <v>84800</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -7416,6 +7856,12 @@
       <c r="J11" t="n">
         <v>964</v>
       </c>
+      <c r="K11" t="n">
+        <v>24300</v>
+      </c>
+      <c r="L11" t="n">
+        <v>144600</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -7454,6 +7900,12 @@
       <c r="J12" t="n">
         <v>8837</v>
       </c>
+      <c r="K12" t="n">
+        <v>26250</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1104625</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -7492,6 +7944,12 @@
       <c r="J13" t="n">
         <v>4590</v>
       </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>459000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7532,6 +7990,12 @@
       <c r="J14" t="n">
         <v>3</v>
       </c>
+      <c r="K14" t="n">
+        <v>725200</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1200</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -7570,6 +8034,12 @@
       <c r="J15" t="n">
         <v>80</v>
       </c>
+      <c r="K15" t="n">
+        <v>2210700</v>
+      </c>
+      <c r="L15" t="n">
+        <v>24000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -7608,6 +8078,12 @@
       <c r="J16" t="n">
         <v>418</v>
       </c>
+      <c r="K16" t="n">
+        <v>719600</v>
+      </c>
+      <c r="L16" t="n">
+        <v>83600</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -7646,6 +8122,12 @@
       <c r="J17" t="n">
         <v>959</v>
       </c>
+      <c r="K17" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>143850</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -7684,6 +8166,12 @@
       <c r="J18" t="n">
         <v>9094</v>
       </c>
+      <c r="K18" t="n">
+        <v>26750</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1136750</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -7722,6 +8210,12 @@
       <c r="J19" t="n">
         <v>4568</v>
       </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>456800</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -7762,6 +8256,12 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
+      <c r="K20" t="n">
+        <v>753200</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -7800,6 +8300,12 @@
       <c r="J21" t="n">
         <v>74</v>
       </c>
+      <c r="K21" t="n">
+        <v>2247900</v>
+      </c>
+      <c r="L21" t="n">
+        <v>22200</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -7838,6 +8344,12 @@
       <c r="J22" t="n">
         <v>403</v>
       </c>
+      <c r="K22" t="n">
+        <v>725600</v>
+      </c>
+      <c r="L22" t="n">
+        <v>80600</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -7876,6 +8388,12 @@
       <c r="J23" t="n">
         <v>1015</v>
       </c>
+      <c r="K23" t="n">
+        <v>29550</v>
+      </c>
+      <c r="L23" t="n">
+        <v>152250</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -7914,6 +8432,12 @@
       <c r="J24" t="n">
         <v>8904</v>
       </c>
+      <c r="K24" t="n">
+        <v>28375</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1113000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -7952,6 +8476,12 @@
       <c r="J25" t="n">
         <v>4407</v>
       </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>440700</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -7992,6 +8522,12 @@
       <c r="J26" t="n">
         <v>18</v>
       </c>
+      <c r="K26" t="n">
+        <v>6045500</v>
+      </c>
+      <c r="L26" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -8030,6 +8566,12 @@
       <c r="J27" t="n">
         <v>294</v>
       </c>
+      <c r="K27" t="n">
+        <v>3276000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>117600</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -8068,6 +8610,12 @@
       <c r="J28" t="n">
         <v>844</v>
       </c>
+      <c r="K28" t="n">
+        <v>702600</v>
+      </c>
+      <c r="L28" t="n">
+        <v>253200</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -8106,6 +8654,12 @@
       <c r="J29" t="n">
         <v>4007</v>
       </c>
+      <c r="K29" t="n">
+        <v>25425</v>
+      </c>
+      <c r="L29" t="n">
+        <v>901575</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -8144,6 +8698,12 @@
       <c r="J30" t="n">
         <v>15742</v>
       </c>
+      <c r="K30" t="n">
+        <v>32725</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2754850</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -8182,6 +8742,12 @@
       <c r="J31" t="n">
         <v>1632</v>
       </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>244800</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -8222,6 +8788,12 @@
       <c r="J32" t="n">
         <v>9</v>
       </c>
+      <c r="K32" t="n">
+        <v>6079500</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -8260,6 +8832,12 @@
       <c r="J33" t="n">
         <v>269</v>
       </c>
+      <c r="K33" t="n">
+        <v>3335200</v>
+      </c>
+      <c r="L33" t="n">
+        <v>107600</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -8298,6 +8876,12 @@
       <c r="J34" t="n">
         <v>854</v>
       </c>
+      <c r="K34" t="n">
+        <v>659400</v>
+      </c>
+      <c r="L34" t="n">
+        <v>256200</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -8336,6 +8920,12 @@
       <c r="J35" t="n">
         <v>4171</v>
       </c>
+      <c r="K35" t="n">
+        <v>25425</v>
+      </c>
+      <c r="L35" t="n">
+        <v>938475</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -8374,6 +8964,12 @@
       <c r="J36" t="n">
         <v>15184</v>
       </c>
+      <c r="K36" t="n">
+        <v>32550</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2657200</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -8412,6 +9008,12 @@
       <c r="J37" t="n">
         <v>1453</v>
       </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>217950</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -8452,6 +9054,12 @@
       <c r="J38" t="n">
         <v>10</v>
       </c>
+      <c r="K38" t="n">
+        <v>5944500</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -8490,6 +9098,12 @@
       <c r="J39" t="n">
         <v>285</v>
       </c>
+      <c r="K39" t="n">
+        <v>3307200</v>
+      </c>
+      <c r="L39" t="n">
+        <v>114000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -8528,6 +9142,12 @@
       <c r="J40" t="n">
         <v>906</v>
       </c>
+      <c r="K40" t="n">
+        <v>687600</v>
+      </c>
+      <c r="L40" t="n">
+        <v>271800</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -8566,6 +9186,12 @@
       <c r="J41" t="n">
         <v>4170</v>
       </c>
+      <c r="K41" t="n">
+        <v>28350</v>
+      </c>
+      <c r="L41" t="n">
+        <v>938250</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
@@ -8604,6 +9230,12 @@
       <c r="J42" t="n">
         <v>15392</v>
       </c>
+      <c r="K42" t="n">
+        <v>30625</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2693600</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -8642,6 +9274,12 @@
       <c r="J43" t="n">
         <v>1452</v>
       </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>217800</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8682,6 +9320,12 @@
       <c r="J44" t="n">
         <v>10</v>
       </c>
+      <c r="K44" t="n">
+        <v>5989000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -8720,6 +9364,12 @@
       <c r="J45" t="n">
         <v>291</v>
       </c>
+      <c r="K45" t="n">
+        <v>3324400</v>
+      </c>
+      <c r="L45" t="n">
+        <v>116400</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -8758,6 +9408,12 @@
       <c r="J46" t="n">
         <v>817</v>
       </c>
+      <c r="K46" t="n">
+        <v>706500</v>
+      </c>
+      <c r="L46" t="n">
+        <v>245100</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -8796,6 +9452,12 @@
       <c r="J47" t="n">
         <v>3995</v>
       </c>
+      <c r="K47" t="n">
+        <v>26775</v>
+      </c>
+      <c r="L47" t="n">
+        <v>898875</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -8834,6 +9496,12 @@
       <c r="J48" t="n">
         <v>15519</v>
       </c>
+      <c r="K48" t="n">
+        <v>33075</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2715825</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -8872,6 +9540,12 @@
       <c r="J49" t="n">
         <v>1748</v>
       </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>262200</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -8912,6 +9586,12 @@
       <c r="J50" t="n">
         <v>2</v>
       </c>
+      <c r="K50" t="n">
+        <v>6194250</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
@@ -8950,6 +9630,12 @@
       <c r="J51" t="n">
         <v>117</v>
       </c>
+      <c r="K51" t="n">
+        <v>2885625</v>
+      </c>
+      <c r="L51" t="n">
+        <v>73125</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -8988,6 +9674,12 @@
       <c r="J52" t="n">
         <v>468</v>
       </c>
+      <c r="K52" t="n">
+        <v>1802250</v>
+      </c>
+      <c r="L52" t="n">
+        <v>210600</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -9026,6 +9718,12 @@
       <c r="J53" t="n">
         <v>1542</v>
       </c>
+      <c r="K53" t="n">
+        <v>185900</v>
+      </c>
+      <c r="L53" t="n">
+        <v>501150</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -9064,6 +9762,12 @@
       <c r="J54" t="n">
         <v>15010</v>
       </c>
+      <c r="K54" t="n">
+        <v>177000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3752500</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -9102,6 +9806,12 @@
       <c r="J55" t="n">
         <v>3059</v>
       </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>611800</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -9142,6 +9852,12 @@
       <c r="J56" t="n">
         <v>1</v>
       </c>
+      <c r="K56" t="n">
+        <v>6105750</v>
+      </c>
+      <c r="L56" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -9180,6 +9896,12 @@
       <c r="J57" t="n">
         <v>141</v>
       </c>
+      <c r="K57" t="n">
+        <v>3076875</v>
+      </c>
+      <c r="L57" t="n">
+        <v>88125</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -9218,6 +9940,12 @@
       <c r="J58" t="n">
         <v>434</v>
       </c>
+      <c r="K58" t="n">
+        <v>1782000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>195300</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -9256,6 +9984,12 @@
       <c r="J59" t="n">
         <v>1653</v>
       </c>
+      <c r="K59" t="n">
+        <v>182000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>537225</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -9294,6 +10028,12 @@
       <c r="J60" t="n">
         <v>15055</v>
       </c>
+      <c r="K60" t="n">
+        <v>184000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3763750</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -9332,6 +10072,12 @@
       <c r="J61" t="n">
         <v>2907</v>
       </c>
+      <c r="K61" t="n">
+        <v>400</v>
+      </c>
+      <c r="L61" t="n">
+        <v>581400</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -9372,6 +10118,12 @@
       <c r="J62" t="n">
         <v>2</v>
       </c>
+      <c r="K62" t="n">
+        <v>6240000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -9410,6 +10162,12 @@
       <c r="J63" t="n">
         <v>103</v>
       </c>
+      <c r="K63" t="n">
+        <v>3023125</v>
+      </c>
+      <c r="L63" t="n">
+        <v>64375</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -9448,6 +10206,12 @@
       <c r="J64" t="n">
         <v>496</v>
       </c>
+      <c r="K64" t="n">
+        <v>1775700</v>
+      </c>
+      <c r="L64" t="n">
+        <v>223200</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
@@ -9486,6 +10250,12 @@
       <c r="J65" t="n">
         <v>1655</v>
       </c>
+      <c r="K65" t="n">
+        <v>194675</v>
+      </c>
+      <c r="L65" t="n">
+        <v>537875</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -9524,6 +10294,12 @@
       <c r="J66" t="n">
         <v>14972</v>
       </c>
+      <c r="K66" t="n">
+        <v>176750</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3743000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
@@ -9562,6 +10338,12 @@
       <c r="J67" t="n">
         <v>2813</v>
       </c>
+      <c r="K67" t="n">
+        <v>200</v>
+      </c>
+      <c r="L67" t="n">
+        <v>562600</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -9602,6 +10384,12 @@
       <c r="J68" t="n">
         <v>1</v>
       </c>
+      <c r="K68" t="n">
+        <v>6150000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>750</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
@@ -9640,6 +10428,12 @@
       <c r="J69" t="n">
         <v>107</v>
       </c>
+      <c r="K69" t="n">
+        <v>2960000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>66875</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
@@ -9678,6 +10472,12 @@
       <c r="J70" t="n">
         <v>518</v>
       </c>
+      <c r="K70" t="n">
+        <v>1775700</v>
+      </c>
+      <c r="L70" t="n">
+        <v>233100</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
@@ -9716,6 +10516,12 @@
       <c r="J71" t="n">
         <v>1581</v>
       </c>
+      <c r="K71" t="n">
+        <v>193375</v>
+      </c>
+      <c r="L71" t="n">
+        <v>513825</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
@@ -9754,6 +10560,12 @@
       <c r="J72" t="n">
         <v>15038</v>
       </c>
+      <c r="K72" t="n">
+        <v>177500</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3759500</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -9791,6 +10603,12 @@
       </c>
       <c r="J73" t="n">
         <v>3069</v>
+      </c>
+      <c r="K73" t="n">
+        <v>200</v>
+      </c>
+      <c r="L73" t="n">
+        <v>613800</v>
       </c>
     </row>
   </sheetData>
@@ -9812,7 +10630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10019,7 +10837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10628,13 +11446,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H307"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13809,34 +14627,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A156" s="1" t="n"/>
       <c r="B156" s="1" t="inlineStr">
         <is>
-          <t>AL1</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="C156" s="1" t="inlineStr">
         <is>
-          <t>Y0</t>
+          <t>XX</t>
         </is>
       </c>
       <c r="D156" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>2.24</v>
+        <v>5.1825</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1266.125</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1.25</v>
-      </c>
+        <v>6.8975</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n"/>
@@ -13846,17 +14658,13 @@
         <v>3</v>
       </c>
       <c r="E157" t="n">
-        <v>9.31</v>
+        <v>13.6</v>
       </c>
       <c r="F157" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="G157" t="n">
-        <v>5411.75</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2.5</v>
-      </c>
+        <v>10.33</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n"/>
@@ -13866,17 +14674,13 @@
         <v>5</v>
       </c>
       <c r="E158" t="n">
-        <v>4.54</v>
+        <v>1.0775</v>
       </c>
       <c r="F158" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="G158" t="n">
-        <v>2649.125</v>
-      </c>
-      <c r="H158" t="n">
-        <v>13.125</v>
-      </c>
+        <v>14.475</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n"/>
@@ -13886,17 +14690,13 @@
         <v>7</v>
       </c>
       <c r="E159" t="n">
-        <v>4.4975</v>
+        <v>0.46</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="G159" t="n">
-        <v>2637.625</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1.25</v>
-      </c>
+        <v>5.305</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n"/>
@@ -13906,17 +14706,13 @@
         <v>10</v>
       </c>
       <c r="E160" t="n">
-        <v>6.835</v>
+        <v>0.215</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="n">
-        <v>4015.25</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>5.7825</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
@@ -13926,17 +14722,13 @@
         <v>14</v>
       </c>
       <c r="E161" t="n">
-        <v>5.8125</v>
+        <v>0.06</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>3427</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>9.18</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n"/>
@@ -13946,17 +14738,13 @@
         <v>17</v>
       </c>
       <c r="E162" t="n">
-        <v>2.72</v>
+        <v>0.005</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1600.5</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>5.115</v>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n"/>
@@ -13965,18 +14753,12 @@
       <c r="D163" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E163" t="n">
-        <v>2.1575</v>
-      </c>
+      <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1261.5</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>5.4025</v>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n"/>
@@ -13985,18 +14767,12 @@
       <c r="D164" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E164" t="n">
-        <v>1.72</v>
-      </c>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1014.125</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>2.2275</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n"/>
@@ -14005,18 +14781,12 @@
       <c r="D165" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E165" t="n">
-        <v>1.7125</v>
-      </c>
+      <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="n">
-        <v>996.125</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>2.8675</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n"/>
@@ -14025,18 +14795,12 @@
       <c r="D166" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E166" t="n">
-        <v>1.0925</v>
-      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="n">
-        <v>649.5</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n"/>
@@ -14045,18 +14809,12 @@
       <c r="D167" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E167" t="n">
-        <v>1.73</v>
-      </c>
+      <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1009</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>2.0525</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n"/>
@@ -14065,18 +14823,12 @@
       <c r="D168" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E168" t="n">
-        <v>2.8175</v>
-      </c>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1657</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>3.99</v>
+      </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n"/>
@@ -14085,18 +14837,12 @@
       <c r="D169" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="E169" t="n">
-        <v>2.2</v>
-      </c>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1282</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>4.3525</v>
+      </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n"/>
@@ -14105,18 +14851,12 @@
       <c r="D170" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="E170" t="n">
-        <v>2.7125</v>
-      </c>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1574.875</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>4.4725</v>
+      </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n"/>
@@ -14125,41 +14865,41 @@
       <c r="D171" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="E171" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>2042.875</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>11.5175</v>
+      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n"/>
-      <c r="B172" s="1" t="n"/>
+      <c r="A172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" s="1" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
       <c r="C172" s="1" t="inlineStr">
         <is>
-          <t>Y1</t>
+          <t>Y0</t>
         </is>
       </c>
       <c r="D172" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="F172" t="n">
-        <v>0.38</v>
+        <v>0.0025</v>
       </c>
       <c r="G172" t="n">
-        <v>944.1875</v>
+        <v>1266.125</v>
       </c>
       <c r="H172" t="n">
-        <v>164.9375</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="173">
@@ -14170,16 +14910,16 @@
         <v>3</v>
       </c>
       <c r="E173" t="n">
-        <v>9.137499999999999</v>
+        <v>9.31</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6</v>
+        <v>0.005</v>
       </c>
       <c r="G173" t="n">
-        <v>3777.6875</v>
+        <v>5411.75</v>
       </c>
       <c r="H173" t="n">
-        <v>276.3125</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="174">
@@ -14190,16 +14930,16 @@
         <v>5</v>
       </c>
       <c r="E174" t="n">
-        <v>3.89</v>
+        <v>4.54</v>
       </c>
       <c r="F174" t="n">
-        <v>0.1675</v>
+        <v>0.025</v>
       </c>
       <c r="G174" t="n">
-        <v>1627.625</v>
+        <v>2649.125</v>
       </c>
       <c r="H174" t="n">
-        <v>74</v>
+        <v>13.125</v>
       </c>
     </row>
     <row r="175">
@@ -14210,16 +14950,16 @@
         <v>7</v>
       </c>
       <c r="E175" t="n">
-        <v>4.305</v>
+        <v>4.4975</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0425</v>
+        <v>0.0025</v>
       </c>
       <c r="G175" t="n">
-        <v>1796.625</v>
+        <v>2637.625</v>
       </c>
       <c r="H175" t="n">
-        <v>18.1875</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="176">
@@ -14230,16 +14970,16 @@
         <v>10</v>
       </c>
       <c r="E176" t="n">
-        <v>6.53</v>
+        <v>6.835</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0175</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>2685.875</v>
+        <v>4015.25</v>
       </c>
       <c r="H176" t="n">
-        <v>7.5625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -14250,16 +14990,16 @@
         <v>14</v>
       </c>
       <c r="E177" t="n">
-        <v>5.21</v>
+        <v>5.8125</v>
       </c>
       <c r="F177" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>2189.3125</v>
+        <v>3427</v>
       </c>
       <c r="H177" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -14270,16 +15010,16 @@
         <v>17</v>
       </c>
       <c r="E178" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="F178" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1053.6875</v>
+        <v>1600.5</v>
       </c>
       <c r="H178" t="n">
-        <v>6.3125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -14290,13 +15030,13 @@
         <v>21</v>
       </c>
       <c r="E179" t="n">
-        <v>2.0775</v>
+        <v>2.1575</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>865.75</v>
+        <v>1261.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -14310,16 +15050,16 @@
         <v>24</v>
       </c>
       <c r="E180" t="n">
-        <v>1.6825</v>
+        <v>1.72</v>
       </c>
       <c r="F180" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>711.125</v>
+        <v>1014.125</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -14330,16 +15070,16 @@
         <v>28</v>
       </c>
       <c r="E181" t="n">
-        <v>1.5175</v>
+        <v>1.7125</v>
       </c>
       <c r="F181" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>623</v>
+        <v>996.125</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -14350,16 +15090,16 @@
         <v>31</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9625</v>
+        <v>1.0925</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>393.5625</v>
+        <v>649.5</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -14370,16 +15110,16 @@
         <v>35</v>
       </c>
       <c r="E183" t="n">
-        <v>1.5775</v>
+        <v>1.73</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
-        <v>642.375</v>
+        <v>1009</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -14390,16 +15130,16 @@
         <v>42</v>
       </c>
       <c r="E184" t="n">
-        <v>2.6925</v>
+        <v>2.8175</v>
       </c>
       <c r="F184" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>1114.6875</v>
+        <v>1657</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -14410,16 +15150,16 @@
         <v>49</v>
       </c>
       <c r="E185" t="n">
-        <v>2.1125</v>
+        <v>2.2</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>873.125</v>
+        <v>1282</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -14430,16 +15170,16 @@
         <v>56</v>
       </c>
       <c r="E186" t="n">
-        <v>2.5575</v>
+        <v>2.7125</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>1073.25</v>
+        <v>1574.875</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -14450,16 +15190,16 @@
         <v>63</v>
       </c>
       <c r="E187" t="n">
-        <v>3.2725</v>
+        <v>3.5</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1352.8125</v>
+        <v>2042.875</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -14467,23 +15207,23 @@
       <c r="B188" s="1" t="n"/>
       <c r="C188" s="1" t="inlineStr">
         <is>
-          <t>Y2</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="D188" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>2.975</v>
+        <v>2.32</v>
       </c>
       <c r="F188" t="n">
-        <v>2.2375</v>
+        <v>0.38</v>
       </c>
       <c r="G188" t="n">
-        <v>987.375</v>
+        <v>944.1875</v>
       </c>
       <c r="H188" t="n">
-        <v>709.375</v>
+        <v>164.9375</v>
       </c>
     </row>
     <row r="189">
@@ -14491,19 +15231,19 @@
       <c r="B189" s="1" t="n"/>
       <c r="C189" s="1" t="n"/>
       <c r="D189" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E189" t="n">
-        <v>2.8825</v>
+        <v>9.137499999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>0.96</v>
+        <v>0.6</v>
       </c>
       <c r="G189" t="n">
-        <v>956.75</v>
+        <v>3777.6875</v>
       </c>
       <c r="H189" t="n">
-        <v>311.5</v>
+        <v>276.3125</v>
       </c>
     </row>
     <row r="190">
@@ -14511,19 +15251,19 @@
       <c r="B190" s="1" t="n"/>
       <c r="C190" s="1" t="n"/>
       <c r="D190" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E190" t="n">
-        <v>3.9325</v>
+        <v>3.89</v>
       </c>
       <c r="F190" t="n">
-        <v>0.265</v>
+        <v>0.1675</v>
       </c>
       <c r="G190" t="n">
-        <v>1302.75</v>
+        <v>1627.625</v>
       </c>
       <c r="H190" t="n">
-        <v>83.625</v>
+        <v>74</v>
       </c>
     </row>
     <row r="191">
@@ -14531,19 +15271,19 @@
       <c r="B191" s="1" t="n"/>
       <c r="C191" s="1" t="n"/>
       <c r="D191" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E191" t="n">
-        <v>3.555</v>
+        <v>4.305</v>
       </c>
       <c r="F191" t="n">
-        <v>0.39</v>
+        <v>0.0425</v>
       </c>
       <c r="G191" t="n">
-        <v>1160.125</v>
+        <v>1796.625</v>
       </c>
       <c r="H191" t="n">
-        <v>114.875</v>
+        <v>18.1875</v>
       </c>
     </row>
     <row r="192">
@@ -14551,19 +15291,19 @@
       <c r="B192" s="1" t="n"/>
       <c r="C192" s="1" t="n"/>
       <c r="D192" s="1" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E192" t="n">
-        <v>1.575</v>
+        <v>6.53</v>
       </c>
       <c r="F192" t="n">
-        <v>0.16</v>
+        <v>0.0175</v>
       </c>
       <c r="G192" t="n">
-        <v>501.75</v>
+        <v>2685.875</v>
       </c>
       <c r="H192" t="n">
-        <v>51.125</v>
+        <v>7.5625</v>
       </c>
     </row>
     <row r="193">
@@ -14571,19 +15311,19 @@
       <c r="B193" s="1" t="n"/>
       <c r="C193" s="1" t="n"/>
       <c r="D193" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E193" t="n">
-        <v>1.125</v>
+        <v>5.21</v>
       </c>
       <c r="F193" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.035</v>
       </c>
       <c r="G193" t="n">
-        <v>352.875</v>
+        <v>2189.3125</v>
       </c>
       <c r="H193" t="n">
-        <v>19.375</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="194">
@@ -14591,19 +15331,19 @@
       <c r="B194" s="1" t="n"/>
       <c r="C194" s="1" t="n"/>
       <c r="D194" s="1" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E194" t="n">
-        <v>0.8625</v>
+        <v>2.5</v>
       </c>
       <c r="F194" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="G194" t="n">
-        <v>270.625</v>
+        <v>1053.6875</v>
       </c>
       <c r="H194" t="n">
-        <v>8.75</v>
+        <v>6.3125</v>
       </c>
     </row>
     <row r="195">
@@ -14611,19 +15351,19 @@
       <c r="B195" s="1" t="n"/>
       <c r="C195" s="1" t="n"/>
       <c r="D195" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E195" t="n">
-        <v>0.9375</v>
+        <v>2.0775</v>
       </c>
       <c r="F195" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>300.75</v>
+        <v>865.75</v>
       </c>
       <c r="H195" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -14631,19 +15371,19 @@
       <c r="B196" s="1" t="n"/>
       <c r="C196" s="1" t="n"/>
       <c r="D196" s="1" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E196" t="n">
-        <v>0.5375</v>
+        <v>1.6825</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0075</v>
+        <v>0.005</v>
       </c>
       <c r="G196" t="n">
-        <v>169.5</v>
+        <v>711.125</v>
       </c>
       <c r="H196" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -14651,19 +15391,19 @@
       <c r="B197" s="1" t="n"/>
       <c r="C197" s="1" t="n"/>
       <c r="D197" s="1" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E197" t="n">
-        <v>0.895</v>
+        <v>1.5175</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0275</v>
+        <v>0.005</v>
       </c>
       <c r="G197" t="n">
-        <v>275.5</v>
+        <v>623</v>
       </c>
       <c r="H197" t="n">
-        <v>8.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -14671,19 +15411,19 @@
       <c r="B198" s="1" t="n"/>
       <c r="C198" s="1" t="n"/>
       <c r="D198" s="1" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E198" t="n">
-        <v>1.5075</v>
+        <v>0.9625</v>
       </c>
       <c r="F198" t="n">
-        <v>0.02</v>
+        <v>0.0025</v>
       </c>
       <c r="G198" t="n">
-        <v>481.125</v>
+        <v>393.5625</v>
       </c>
       <c r="H198" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -14691,19 +15431,19 @@
       <c r="B199" s="1" t="n"/>
       <c r="C199" s="1" t="n"/>
       <c r="D199" s="1" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E199" t="n">
-        <v>1.17</v>
+        <v>1.5775</v>
       </c>
       <c r="F199" t="n">
-        <v>0.04</v>
+        <v>0.0025</v>
       </c>
       <c r="G199" t="n">
-        <v>381.5</v>
+        <v>642.375</v>
       </c>
       <c r="H199" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -14711,19 +15451,19 @@
       <c r="B200" s="1" t="n"/>
       <c r="C200" s="1" t="n"/>
       <c r="D200" s="1" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E200" t="n">
-        <v>1.4975</v>
+        <v>2.6925</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0375</v>
+        <v>0.005</v>
       </c>
       <c r="G200" t="n">
-        <v>470.25</v>
+        <v>1114.6875</v>
       </c>
       <c r="H200" t="n">
-        <v>11.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -14731,43 +15471,39 @@
       <c r="B201" s="1" t="n"/>
       <c r="C201" s="1" t="n"/>
       <c r="D201" s="1" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E201" t="n">
-        <v>1.7675</v>
+        <v>2.1125</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0825</v>
+        <v>0.0025</v>
       </c>
       <c r="G201" t="n">
-        <v>557.5</v>
+        <v>873.125</v>
       </c>
       <c r="H201" t="n">
-        <v>24.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n"/>
       <c r="B202" s="1" t="n"/>
-      <c r="C202" s="1" t="inlineStr">
-        <is>
-          <t>Y3</t>
-        </is>
-      </c>
+      <c r="C202" s="1" t="n"/>
       <c r="D202" s="1" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E202" t="n">
-        <v>0.46</v>
+        <v>2.5575</v>
       </c>
       <c r="F202" t="n">
-        <v>2.655</v>
+        <v>0.0075</v>
       </c>
       <c r="G202" t="n">
-        <v>127.25</v>
+        <v>1073.25</v>
       </c>
       <c r="H202" t="n">
-        <v>638.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -14775,39 +15511,43 @@
       <c r="B203" s="1" t="n"/>
       <c r="C203" s="1" t="n"/>
       <c r="D203" s="1" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E203" t="n">
-        <v>0.35</v>
+        <v>3.2725</v>
       </c>
       <c r="F203" t="n">
-        <v>4.36</v>
+        <v>0.0075</v>
       </c>
       <c r="G203" t="n">
-        <v>100.125</v>
+        <v>1352.8125</v>
       </c>
       <c r="H203" t="n">
-        <v>1061.375</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n"/>
       <c r="B204" s="1" t="n"/>
-      <c r="C204" s="1" t="n"/>
+      <c r="C204" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
       <c r="D204" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E204" t="n">
-        <v>0.18</v>
+        <v>2.975</v>
       </c>
       <c r="F204" t="n">
-        <v>0.6274999999999999</v>
+        <v>2.2375</v>
       </c>
       <c r="G204" t="n">
-        <v>51.9375</v>
+        <v>987.375</v>
       </c>
       <c r="H204" t="n">
-        <v>153.625</v>
+        <v>709.375</v>
       </c>
     </row>
     <row r="205">
@@ -14815,19 +15555,19 @@
       <c r="B205" s="1" t="n"/>
       <c r="C205" s="1" t="n"/>
       <c r="D205" s="1" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E205" t="n">
-        <v>0.1475</v>
+        <v>2.8825</v>
       </c>
       <c r="F205" t="n">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="G205" t="n">
-        <v>39.9375</v>
+        <v>956.75</v>
       </c>
       <c r="H205" t="n">
-        <v>204.625</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="206">
@@ -14835,19 +15575,19 @@
       <c r="B206" s="1" t="n"/>
       <c r="C206" s="1" t="n"/>
       <c r="D206" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E206" t="n">
-        <v>0.0825</v>
+        <v>3.9325</v>
       </c>
       <c r="F206" t="n">
-        <v>0.91</v>
+        <v>0.265</v>
       </c>
       <c r="G206" t="n">
-        <v>22.1875</v>
+        <v>1302.75</v>
       </c>
       <c r="H206" t="n">
-        <v>217.0625</v>
+        <v>83.625</v>
       </c>
     </row>
     <row r="207">
@@ -14855,19 +15595,19 @@
       <c r="B207" s="1" t="n"/>
       <c r="C207" s="1" t="n"/>
       <c r="D207" s="1" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E207" t="n">
-        <v>0.0775</v>
+        <v>3.555</v>
       </c>
       <c r="F207" t="n">
-        <v>1.005</v>
+        <v>0.39</v>
       </c>
       <c r="G207" t="n">
-        <v>19.4375</v>
+        <v>1160.125</v>
       </c>
       <c r="H207" t="n">
-        <v>239.6875</v>
+        <v>114.875</v>
       </c>
     </row>
     <row r="208">
@@ -14875,19 +15615,19 @@
       <c r="B208" s="1" t="n"/>
       <c r="C208" s="1" t="n"/>
       <c r="D208" s="1" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E208" t="n">
-        <v>0.0725</v>
+        <v>1.575</v>
       </c>
       <c r="F208" t="n">
-        <v>0.3675</v>
+        <v>0.16</v>
       </c>
       <c r="G208" t="n">
-        <v>19.6875</v>
+        <v>501.75</v>
       </c>
       <c r="H208" t="n">
-        <v>88.1875</v>
+        <v>51.125</v>
       </c>
     </row>
     <row r="209">
@@ -14895,19 +15635,19 @@
       <c r="B209" s="1" t="n"/>
       <c r="C209" s="1" t="n"/>
       <c r="D209" s="1" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E209" t="n">
-        <v>0.125</v>
+        <v>1.125</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5525</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G209" t="n">
-        <v>35.1875</v>
+        <v>352.875</v>
       </c>
       <c r="H209" t="n">
-        <v>127.1875</v>
+        <v>19.375</v>
       </c>
     </row>
     <row r="210">
@@ -14915,19 +15655,19 @@
       <c r="B210" s="1" t="n"/>
       <c r="C210" s="1" t="n"/>
       <c r="D210" s="1" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E210" t="n">
-        <v>0.17</v>
+        <v>0.8625</v>
       </c>
       <c r="F210" t="n">
-        <v>0.91</v>
+        <v>0.03</v>
       </c>
       <c r="G210" t="n">
-        <v>46</v>
+        <v>270.625</v>
       </c>
       <c r="H210" t="n">
-        <v>206.0625</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="211">
@@ -14935,19 +15675,19 @@
       <c r="B211" s="1" t="n"/>
       <c r="C211" s="1" t="n"/>
       <c r="D211" s="1" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E211" t="n">
-        <v>0.12</v>
+        <v>0.9375</v>
       </c>
       <c r="F211" t="n">
-        <v>1.1</v>
+        <v>0.03</v>
       </c>
       <c r="G211" t="n">
-        <v>31.125</v>
+        <v>300.75</v>
       </c>
       <c r="H211" t="n">
-        <v>251.3125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
@@ -14955,19 +15695,19 @@
       <c r="B212" s="1" t="n"/>
       <c r="C212" s="1" t="n"/>
       <c r="D212" s="1" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E212" t="n">
-        <v>0.2</v>
+        <v>0.5375</v>
       </c>
       <c r="F212" t="n">
-        <v>0.925</v>
+        <v>0.0075</v>
       </c>
       <c r="G212" t="n">
-        <v>53.25</v>
+        <v>169.5</v>
       </c>
       <c r="H212" t="n">
-        <v>218.9375</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="213">
@@ -14975,43 +15715,39 @@
       <c r="B213" s="1" t="n"/>
       <c r="C213" s="1" t="n"/>
       <c r="D213" s="1" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E213" t="n">
-        <v>0.185</v>
+        <v>0.895</v>
       </c>
       <c r="F213" t="n">
-        <v>2.7725</v>
+        <v>0.0275</v>
       </c>
       <c r="G213" t="n">
-        <v>52.5</v>
+        <v>275.5</v>
       </c>
       <c r="H213" t="n">
-        <v>670.125</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n"/>
       <c r="B214" s="1" t="n"/>
-      <c r="C214" s="1" t="inlineStr">
-        <is>
-          <t>Y4</t>
-        </is>
-      </c>
+      <c r="C214" s="1" t="n"/>
       <c r="D214" s="1" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E214" t="n">
-        <v>0.315</v>
+        <v>1.5075</v>
       </c>
       <c r="F214" t="n">
-        <v>6.36</v>
+        <v>0.02</v>
       </c>
       <c r="G214" t="n">
-        <v>64.125</v>
+        <v>481.125</v>
       </c>
       <c r="H214" t="n">
-        <v>1213.4375</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215">
@@ -15019,19 +15755,19 @@
       <c r="B215" s="1" t="n"/>
       <c r="C215" s="1" t="n"/>
       <c r="D215" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E215" t="n">
-        <v>0.2475</v>
+        <v>1.17</v>
       </c>
       <c r="F215" t="n">
-        <v>7.6375</v>
+        <v>0.04</v>
       </c>
       <c r="G215" t="n">
-        <v>53.0625</v>
+        <v>381.5</v>
       </c>
       <c r="H215" t="n">
-        <v>1440.6875</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216">
@@ -15039,19 +15775,19 @@
       <c r="B216" s="1" t="n"/>
       <c r="C216" s="1" t="n"/>
       <c r="D216" s="1" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2425</v>
+        <v>1.4975</v>
       </c>
       <c r="F216" t="n">
-        <v>9.5625</v>
+        <v>0.0375</v>
       </c>
       <c r="G216" t="n">
-        <v>52.0625</v>
+        <v>470.25</v>
       </c>
       <c r="H216" t="n">
-        <v>1824.4375</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="217">
@@ -15059,39 +15795,43 @@
       <c r="B217" s="1" t="n"/>
       <c r="C217" s="1" t="n"/>
       <c r="D217" s="1" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E217" t="n">
-        <v>0.215</v>
+        <v>1.7675</v>
       </c>
       <c r="F217" t="n">
-        <v>10.1125</v>
+        <v>0.0825</v>
       </c>
       <c r="G217" t="n">
-        <v>48.4375</v>
+        <v>557.5</v>
       </c>
       <c r="H217" t="n">
-        <v>1938.25</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n"/>
       <c r="B218" s="1" t="n"/>
-      <c r="C218" s="1" t="n"/>
+      <c r="C218" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
       <c r="D218" s="1" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E218" t="n">
-        <v>0.1475</v>
+        <v>0.46</v>
       </c>
       <c r="F218" t="n">
-        <v>4.8725</v>
+        <v>2.655</v>
       </c>
       <c r="G218" t="n">
-        <v>29.4375</v>
+        <v>127.25</v>
       </c>
       <c r="H218" t="n">
-        <v>929.875</v>
+        <v>638.25</v>
       </c>
     </row>
     <row r="219">
@@ -15099,19 +15839,19 @@
       <c r="B219" s="1" t="n"/>
       <c r="C219" s="1" t="n"/>
       <c r="D219" s="1" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E219" t="n">
-        <v>0.2075</v>
+        <v>0.35</v>
       </c>
       <c r="F219" t="n">
-        <v>7.665</v>
+        <v>4.36</v>
       </c>
       <c r="G219" t="n">
-        <v>44.3125</v>
+        <v>100.125</v>
       </c>
       <c r="H219" t="n">
-        <v>1463.9375</v>
+        <v>1061.375</v>
       </c>
     </row>
     <row r="220">
@@ -15119,19 +15859,19 @@
       <c r="B220" s="1" t="n"/>
       <c r="C220" s="1" t="n"/>
       <c r="D220" s="1" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E220" t="n">
-        <v>0.345</v>
+        <v>0.18</v>
       </c>
       <c r="F220" t="n">
-        <v>11.3725</v>
+        <v>0.6274999999999999</v>
       </c>
       <c r="G220" t="n">
-        <v>73.25</v>
+        <v>51.9375</v>
       </c>
       <c r="H220" t="n">
-        <v>2208.375</v>
+        <v>153.625</v>
       </c>
     </row>
     <row r="221">
@@ -15139,19 +15879,19 @@
       <c r="B221" s="1" t="n"/>
       <c r="C221" s="1" t="n"/>
       <c r="D221" s="1" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E221" t="n">
-        <v>0.27</v>
+        <v>0.1475</v>
       </c>
       <c r="F221" t="n">
-        <v>11.305</v>
+        <v>0.85</v>
       </c>
       <c r="G221" t="n">
-        <v>57.8125</v>
+        <v>39.9375</v>
       </c>
       <c r="H221" t="n">
-        <v>2181.6875</v>
+        <v>204.625</v>
       </c>
     </row>
     <row r="222">
@@ -15159,19 +15899,19 @@
       <c r="B222" s="1" t="n"/>
       <c r="C222" s="1" t="n"/>
       <c r="D222" s="1" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E222" t="n">
-        <v>0.3725</v>
+        <v>0.0825</v>
       </c>
       <c r="F222" t="n">
-        <v>10.145</v>
+        <v>0.91</v>
       </c>
       <c r="G222" t="n">
-        <v>78.125</v>
+        <v>22.1875</v>
       </c>
       <c r="H222" t="n">
-        <v>1961</v>
+        <v>217.0625</v>
       </c>
     </row>
     <row r="223">
@@ -15179,43 +15919,39 @@
       <c r="B223" s="1" t="n"/>
       <c r="C223" s="1" t="n"/>
       <c r="D223" s="1" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4175</v>
+        <v>0.0775</v>
       </c>
       <c r="F223" t="n">
-        <v>20.685</v>
+        <v>1.005</v>
       </c>
       <c r="G223" t="n">
-        <v>89.5</v>
+        <v>19.4375</v>
       </c>
       <c r="H223" t="n">
-        <v>4003.125</v>
+        <v>239.6875</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n"/>
       <c r="B224" s="1" t="n"/>
-      <c r="C224" s="1" t="inlineStr">
-        <is>
-          <t>Y5</t>
-        </is>
-      </c>
+      <c r="C224" s="1" t="n"/>
       <c r="D224" s="1" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E224" t="n">
-        <v>0.0025</v>
+        <v>0.0725</v>
       </c>
       <c r="F224" t="n">
-        <v>3.6025</v>
+        <v>0.3675</v>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>19.6875</v>
       </c>
       <c r="H224" t="n">
-        <v>553.25</v>
+        <v>88.1875</v>
       </c>
     </row>
     <row r="225">
@@ -15223,19 +15959,19 @@
       <c r="B225" s="1" t="n"/>
       <c r="C225" s="1" t="n"/>
       <c r="D225" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F225" t="n">
-        <v>3.315</v>
+        <v>0.5525</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>35.1875</v>
       </c>
       <c r="H225" t="n">
-        <v>497.75</v>
+        <v>127.1875</v>
       </c>
     </row>
     <row r="226">
@@ -15243,19 +15979,19 @@
       <c r="B226" s="1" t="n"/>
       <c r="C226" s="1" t="n"/>
       <c r="D226" s="1" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F226" t="n">
-        <v>1.625</v>
+        <v>0.91</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H226" t="n">
-        <v>242.375</v>
+        <v>206.0625</v>
       </c>
     </row>
     <row r="227">
@@ -15263,19 +15999,19 @@
       <c r="B227" s="1" t="n"/>
       <c r="C227" s="1" t="n"/>
       <c r="D227" s="1" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F227" t="n">
-        <v>2.11</v>
+        <v>1.1</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>31.125</v>
       </c>
       <c r="H227" t="n">
-        <v>307.5</v>
+        <v>251.3125</v>
       </c>
     </row>
     <row r="228">
@@ -15283,19 +16019,19 @@
       <c r="B228" s="1" t="n"/>
       <c r="C228" s="1" t="n"/>
       <c r="D228" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F228" t="n">
-        <v>2.7775</v>
+        <v>0.925</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>53.25</v>
       </c>
       <c r="H228" t="n">
-        <v>381.625</v>
+        <v>218.9375</v>
       </c>
     </row>
     <row r="229">
@@ -15303,39 +16039,43 @@
       <c r="B229" s="1" t="n"/>
       <c r="C229" s="1" t="n"/>
       <c r="D229" s="1" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E229" t="n">
-        <v>0.0025</v>
+        <v>0.185</v>
       </c>
       <c r="F229" t="n">
-        <v>2.415</v>
+        <v>2.7725</v>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>52.5</v>
       </c>
       <c r="H229" t="n">
-        <v>316.875</v>
+        <v>670.125</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n"/>
       <c r="B230" s="1" t="n"/>
-      <c r="C230" s="1" t="n"/>
+      <c r="C230" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
       <c r="D230" s="1" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>0.315</v>
       </c>
       <c r="F230" t="n">
-        <v>2.1675</v>
+        <v>6.36</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>64.125</v>
       </c>
       <c r="H230" t="n">
-        <v>277.375</v>
+        <v>1213.4375</v>
       </c>
     </row>
     <row r="231">
@@ -15343,47 +16083,39 @@
       <c r="B231" s="1" t="n"/>
       <c r="C231" s="1" t="n"/>
       <c r="D231" s="1" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>0.2475</v>
       </c>
       <c r="F231" t="n">
-        <v>3.62</v>
+        <v>7.6375</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>53.0625</v>
       </c>
       <c r="H231" t="n">
-        <v>432.625</v>
+        <v>1440.6875</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n"/>
-      <c r="B232" s="1" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C232" s="1" t="inlineStr">
-        <is>
-          <t>Y0</t>
-        </is>
-      </c>
+      <c r="B232" s="1" t="n"/>
+      <c r="C232" s="1" t="n"/>
       <c r="D232" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E232" t="n">
-        <v>2.215</v>
+        <v>0.2425</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0025</v>
+        <v>9.5625</v>
       </c>
       <c r="G232" t="n">
-        <v>1268.5</v>
+        <v>52.0625</v>
       </c>
       <c r="H232" t="n">
-        <v>1.875</v>
+        <v>1824.4375</v>
       </c>
     </row>
     <row r="233">
@@ -15391,19 +16123,19 @@
       <c r="B233" s="1" t="n"/>
       <c r="C233" s="1" t="n"/>
       <c r="D233" s="1" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E233" t="n">
-        <v>9.3825</v>
+        <v>0.215</v>
       </c>
       <c r="F233" t="n">
-        <v>0.005</v>
+        <v>10.1125</v>
       </c>
       <c r="G233" t="n">
-        <v>5473.5</v>
+        <v>48.4375</v>
       </c>
       <c r="H233" t="n">
-        <v>2.5</v>
+        <v>1938.25</v>
       </c>
     </row>
     <row r="234">
@@ -15411,19 +16143,19 @@
       <c r="B234" s="1" t="n"/>
       <c r="C234" s="1" t="n"/>
       <c r="D234" s="1" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E234" t="n">
-        <v>4.4</v>
+        <v>0.1475</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0225</v>
+        <v>4.8725</v>
       </c>
       <c r="G234" t="n">
-        <v>2564.125</v>
+        <v>29.4375</v>
       </c>
       <c r="H234" t="n">
-        <v>11.375</v>
+        <v>929.875</v>
       </c>
     </row>
     <row r="235">
@@ -15431,19 +16163,19 @@
       <c r="B235" s="1" t="n"/>
       <c r="C235" s="1" t="n"/>
       <c r="D235" s="1" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E235" t="n">
-        <v>4.6125</v>
+        <v>0.2075</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0025</v>
+        <v>7.665</v>
       </c>
       <c r="G235" t="n">
-        <v>2712.375</v>
+        <v>44.3125</v>
       </c>
       <c r="H235" t="n">
-        <v>1.25</v>
+        <v>1463.9375</v>
       </c>
     </row>
     <row r="236">
@@ -15451,19 +16183,19 @@
       <c r="B236" s="1" t="n"/>
       <c r="C236" s="1" t="n"/>
       <c r="D236" s="1" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E236" t="n">
-        <v>6.8425</v>
+        <v>0.345</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0025</v>
+        <v>11.3725</v>
       </c>
       <c r="G236" t="n">
-        <v>4003.375</v>
+        <v>73.25</v>
       </c>
       <c r="H236" t="n">
-        <v>1.875</v>
+        <v>2208.375</v>
       </c>
     </row>
     <row r="237">
@@ -15471,19 +16203,19 @@
       <c r="B237" s="1" t="n"/>
       <c r="C237" s="1" t="n"/>
       <c r="D237" s="1" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E237" t="n">
-        <v>5.485</v>
+        <v>0.27</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>11.305</v>
       </c>
       <c r="G237" t="n">
-        <v>3239.375</v>
+        <v>57.8125</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2181.6875</v>
       </c>
     </row>
     <row r="238">
@@ -15491,19 +16223,19 @@
       <c r="B238" s="1" t="n"/>
       <c r="C238" s="1" t="n"/>
       <c r="D238" s="1" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E238" t="n">
-        <v>2.6375</v>
+        <v>0.3725</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>10.145</v>
       </c>
       <c r="G238" t="n">
-        <v>1553.875</v>
+        <v>78.125</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="239">
@@ -15511,39 +16243,43 @@
       <c r="B239" s="1" t="n"/>
       <c r="C239" s="1" t="n"/>
       <c r="D239" s="1" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E239" t="n">
-        <v>2.1625</v>
+        <v>0.4175</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>20.685</v>
       </c>
       <c r="G239" t="n">
-        <v>1269.75</v>
+        <v>89.5</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>4003.125</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n"/>
       <c r="B240" s="1" t="n"/>
-      <c r="C240" s="1" t="n"/>
+      <c r="C240" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
       <c r="D240" s="1" t="n">
         <v>24</v>
       </c>
       <c r="E240" t="n">
-        <v>1.7525</v>
+        <v>0.0025</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>3.6025</v>
       </c>
       <c r="G240" t="n">
-        <v>1027</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>553.25</v>
       </c>
     </row>
     <row r="241">
@@ -15554,16 +16290,16 @@
         <v>28</v>
       </c>
       <c r="E241" t="n">
-        <v>1.6475</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>3.315</v>
       </c>
       <c r="G241" t="n">
-        <v>964.5</v>
+        <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>497.75</v>
       </c>
     </row>
     <row r="242">
@@ -15574,16 +16310,16 @@
         <v>31</v>
       </c>
       <c r="E242" t="n">
-        <v>1.115</v>
+        <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="G242" t="n">
-        <v>650.25</v>
+        <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>242.375</v>
       </c>
     </row>
     <row r="243">
@@ -15594,16 +16330,16 @@
         <v>35</v>
       </c>
       <c r="E243" t="n">
-        <v>1.675</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="G243" t="n">
-        <v>981.25</v>
+        <v>0</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>307.5</v>
       </c>
     </row>
     <row r="244">
@@ -15614,16 +16350,16 @@
         <v>42</v>
       </c>
       <c r="E244" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>2.7775</v>
       </c>
       <c r="G244" t="n">
-        <v>1716.375</v>
+        <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>381.625</v>
       </c>
     </row>
     <row r="245">
@@ -15634,16 +16370,16 @@
         <v>49</v>
       </c>
       <c r="E245" t="n">
-        <v>2.225</v>
+        <v>0.0025</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>2.415</v>
       </c>
       <c r="G245" t="n">
-        <v>1309</v>
+        <v>0.5</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>316.875</v>
       </c>
     </row>
     <row r="246">
@@ -15654,16 +16390,16 @@
         <v>56</v>
       </c>
       <c r="E246" t="n">
-        <v>2.825</v>
+        <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>2.1675</v>
       </c>
       <c r="G246" t="n">
-        <v>1667.75</v>
+        <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>277.375</v>
       </c>
     </row>
     <row r="247">
@@ -15674,40 +16410,44 @@
         <v>63</v>
       </c>
       <c r="E247" t="n">
-        <v>3.4125</v>
+        <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="G247" t="n">
-        <v>2001.5</v>
+        <v>0</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>432.625</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n"/>
-      <c r="B248" s="1" t="n"/>
+      <c r="B248" s="1" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
       <c r="C248" s="1" t="inlineStr">
         <is>
-          <t>Y1</t>
+          <t>Y0</t>
         </is>
       </c>
       <c r="D248" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>2.3075</v>
+        <v>2.215</v>
       </c>
       <c r="F248" t="n">
-        <v>0.315</v>
+        <v>0.0025</v>
       </c>
       <c r="G248" t="n">
-        <v>921.25</v>
+        <v>1268.5</v>
       </c>
       <c r="H248" t="n">
-        <v>136.125</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="249">
@@ -15718,16 +16458,16 @@
         <v>3</v>
       </c>
       <c r="E249" t="n">
-        <v>8.975</v>
+        <v>9.3825</v>
       </c>
       <c r="F249" t="n">
-        <v>0.605</v>
+        <v>0.005</v>
       </c>
       <c r="G249" t="n">
-        <v>3759.5625</v>
+        <v>5473.5</v>
       </c>
       <c r="H249" t="n">
-        <v>273.3125</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="250">
@@ -15738,16 +16478,16 @@
         <v>5</v>
       </c>
       <c r="E250" t="n">
-        <v>4.18</v>
+        <v>4.4</v>
       </c>
       <c r="F250" t="n">
-        <v>0.17</v>
+        <v>0.0225</v>
       </c>
       <c r="G250" t="n">
-        <v>1741</v>
+        <v>2564.125</v>
       </c>
       <c r="H250" t="n">
-        <v>72.5</v>
+        <v>11.375</v>
       </c>
     </row>
     <row r="251">
@@ -15758,16 +16498,16 @@
         <v>7</v>
       </c>
       <c r="E251" t="n">
-        <v>4.3</v>
+        <v>4.6125</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0425</v>
+        <v>0.0025</v>
       </c>
       <c r="G251" t="n">
-        <v>1796.625</v>
+        <v>2712.375</v>
       </c>
       <c r="H251" t="n">
-        <v>17.875</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="252">
@@ -15778,16 +16518,16 @@
         <v>10</v>
       </c>
       <c r="E252" t="n">
-        <v>6.405</v>
+        <v>6.8425</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0275</v>
+        <v>0.0025</v>
       </c>
       <c r="G252" t="n">
-        <v>2673.1875</v>
+        <v>4003.375</v>
       </c>
       <c r="H252" t="n">
-        <v>11.0625</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="253">
@@ -15798,16 +16538,16 @@
         <v>14</v>
       </c>
       <c r="E253" t="n">
-        <v>5.4425</v>
+        <v>5.485</v>
       </c>
       <c r="F253" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
-        <v>2266.75</v>
+        <v>3239.375</v>
       </c>
       <c r="H253" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -15818,16 +16558,16 @@
         <v>17</v>
       </c>
       <c r="E254" t="n">
-        <v>2.595</v>
+        <v>2.6375</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>1085.9375</v>
+        <v>1553.875</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -15838,13 +16578,13 @@
         <v>21</v>
       </c>
       <c r="E255" t="n">
-        <v>2.0175</v>
+        <v>2.1625</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>834.125</v>
+        <v>1269.75</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15858,16 +16598,16 @@
         <v>24</v>
       </c>
       <c r="E256" t="n">
-        <v>1.58</v>
+        <v>1.7525</v>
       </c>
       <c r="F256" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
-        <v>651.625</v>
+        <v>1027</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -15878,13 +16618,13 @@
         <v>28</v>
       </c>
       <c r="E257" t="n">
-        <v>1.46</v>
+        <v>1.6475</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
       </c>
       <c r="G257" t="n">
-        <v>606.6875</v>
+        <v>964.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15898,16 +16638,16 @@
         <v>31</v>
       </c>
       <c r="E258" t="n">
-        <v>1.0875</v>
+        <v>1.115</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>430.9375</v>
+        <v>650.25</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -15918,16 +16658,16 @@
         <v>35</v>
       </c>
       <c r="E259" t="n">
-        <v>1.575</v>
+        <v>1.675</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
-        <v>657.8125</v>
+        <v>981.25</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -15938,13 +16678,13 @@
         <v>42</v>
       </c>
       <c r="E260" t="n">
-        <v>2.6625</v>
+        <v>2.92</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>1114.3125</v>
+        <v>1716.375</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15958,13 +16698,13 @@
         <v>49</v>
       </c>
       <c r="E261" t="n">
-        <v>2.0975</v>
+        <v>2.225</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>876.1875</v>
+        <v>1309</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15978,16 +16718,16 @@
         <v>56</v>
       </c>
       <c r="E262" t="n">
-        <v>2.6325</v>
+        <v>2.825</v>
       </c>
       <c r="F262" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>1106.4375</v>
+        <v>1667.75</v>
       </c>
       <c r="H262" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -15998,16 +16738,16 @@
         <v>63</v>
       </c>
       <c r="E263" t="n">
-        <v>3.2575</v>
+        <v>3.4125</v>
       </c>
       <c r="F263" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>1336.9375</v>
+        <v>2001.5</v>
       </c>
       <c r="H263" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -16015,23 +16755,23 @@
       <c r="B264" s="1" t="n"/>
       <c r="C264" s="1" t="inlineStr">
         <is>
-          <t>Y2</t>
+          <t>Y1</t>
         </is>
       </c>
       <c r="D264" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>2.63</v>
+        <v>2.3075</v>
       </c>
       <c r="F264" t="n">
-        <v>2.3275</v>
+        <v>0.315</v>
       </c>
       <c r="G264" t="n">
-        <v>879.125</v>
+        <v>921.25</v>
       </c>
       <c r="H264" t="n">
-        <v>753.625</v>
+        <v>136.125</v>
       </c>
     </row>
     <row r="265">
@@ -16039,19 +16779,19 @@
       <c r="B265" s="1" t="n"/>
       <c r="C265" s="1" t="n"/>
       <c r="D265" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E265" t="n">
-        <v>2.8675</v>
+        <v>8.975</v>
       </c>
       <c r="F265" t="n">
-        <v>1.055</v>
+        <v>0.605</v>
       </c>
       <c r="G265" t="n">
-        <v>957.25</v>
+        <v>3759.5625</v>
       </c>
       <c r="H265" t="n">
-        <v>336</v>
+        <v>273.3125</v>
       </c>
     </row>
     <row r="266">
@@ -16059,19 +16799,19 @@
       <c r="B266" s="1" t="n"/>
       <c r="C266" s="1" t="n"/>
       <c r="D266" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E266" t="n">
-        <v>3.995</v>
+        <v>4.18</v>
       </c>
       <c r="F266" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="G266" t="n">
-        <v>1299.25</v>
+        <v>1741</v>
       </c>
       <c r="H266" t="n">
-        <v>68.625</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="267">
@@ -16079,19 +16819,19 @@
       <c r="B267" s="1" t="n"/>
       <c r="C267" s="1" t="n"/>
       <c r="D267" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E267" t="n">
-        <v>3.5225</v>
+        <v>4.3</v>
       </c>
       <c r="F267" t="n">
-        <v>0.34</v>
+        <v>0.0425</v>
       </c>
       <c r="G267" t="n">
-        <v>1154.5</v>
+        <v>1796.625</v>
       </c>
       <c r="H267" t="n">
-        <v>102</v>
+        <v>17.875</v>
       </c>
     </row>
     <row r="268">
@@ -16099,19 +16839,19 @@
       <c r="B268" s="1" t="n"/>
       <c r="C268" s="1" t="n"/>
       <c r="D268" s="1" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E268" t="n">
-        <v>1.44</v>
+        <v>6.405</v>
       </c>
       <c r="F268" t="n">
-        <v>0.11</v>
+        <v>0.0275</v>
       </c>
       <c r="G268" t="n">
-        <v>462</v>
+        <v>2673.1875</v>
       </c>
       <c r="H268" t="n">
-        <v>36.625</v>
+        <v>11.0625</v>
       </c>
     </row>
     <row r="269">
@@ -16119,19 +16859,19 @@
       <c r="B269" s="1" t="n"/>
       <c r="C269" s="1" t="n"/>
       <c r="D269" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E269" t="n">
-        <v>1.205</v>
+        <v>5.4425</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0575</v>
+        <v>0.02</v>
       </c>
       <c r="G269" t="n">
-        <v>383.375</v>
+        <v>2266.75</v>
       </c>
       <c r="H269" t="n">
-        <v>16.625</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270">
@@ -16139,19 +16879,19 @@
       <c r="B270" s="1" t="n"/>
       <c r="C270" s="1" t="n"/>
       <c r="D270" s="1" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E270" t="n">
-        <v>0.8575</v>
+        <v>2.595</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0225</v>
+        <v>0.0025</v>
       </c>
       <c r="G270" t="n">
-        <v>275.875</v>
+        <v>1085.9375</v>
       </c>
       <c r="H270" t="n">
-        <v>7.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -16159,19 +16899,19 @@
       <c r="B271" s="1" t="n"/>
       <c r="C271" s="1" t="n"/>
       <c r="D271" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E271" t="n">
-        <v>0.965</v>
+        <v>2.0175</v>
       </c>
       <c r="F271" t="n">
-        <v>0.0275</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>318.125</v>
+        <v>834.125</v>
       </c>
       <c r="H271" t="n">
-        <v>8.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -16179,19 +16919,19 @@
       <c r="B272" s="1" t="n"/>
       <c r="C272" s="1" t="n"/>
       <c r="D272" s="1" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E272" t="n">
-        <v>0.585</v>
+        <v>1.58</v>
       </c>
       <c r="F272" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="G272" t="n">
-        <v>180.25</v>
+        <v>651.625</v>
       </c>
       <c r="H272" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -16199,19 +16939,19 @@
       <c r="B273" s="1" t="n"/>
       <c r="C273" s="1" t="n"/>
       <c r="D273" s="1" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E273" t="n">
-        <v>0.915</v>
+        <v>1.46</v>
       </c>
       <c r="F273" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>288.375</v>
+        <v>606.6875</v>
       </c>
       <c r="H273" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -16219,19 +16959,19 @@
       <c r="B274" s="1" t="n"/>
       <c r="C274" s="1" t="n"/>
       <c r="D274" s="1" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E274" t="n">
-        <v>1.5</v>
+        <v>1.0875</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0325</v>
+        <v>0.0025</v>
       </c>
       <c r="G274" t="n">
-        <v>477.5</v>
+        <v>430.9375</v>
       </c>
       <c r="H274" t="n">
-        <v>9.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -16239,19 +16979,19 @@
       <c r="B275" s="1" t="n"/>
       <c r="C275" s="1" t="n"/>
       <c r="D275" s="1" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E275" t="n">
-        <v>1.23</v>
+        <v>1.575</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0375</v>
+        <v>0.0025</v>
       </c>
       <c r="G275" t="n">
-        <v>374.75</v>
+        <v>657.8125</v>
       </c>
       <c r="H275" t="n">
-        <v>11.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -16259,19 +16999,19 @@
       <c r="B276" s="1" t="n"/>
       <c r="C276" s="1" t="n"/>
       <c r="D276" s="1" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E276" t="n">
-        <v>1.46</v>
+        <v>2.6625</v>
       </c>
       <c r="F276" t="n">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>458</v>
+        <v>1114.3125</v>
       </c>
       <c r="H276" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -16279,43 +17019,39 @@
       <c r="B277" s="1" t="n"/>
       <c r="C277" s="1" t="n"/>
       <c r="D277" s="1" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E277" t="n">
-        <v>1.7075</v>
+        <v>2.0975</v>
       </c>
       <c r="F277" t="n">
-        <v>0.1175</v>
+        <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>540</v>
+        <v>876.1875</v>
       </c>
       <c r="H277" t="n">
-        <v>35.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n"/>
       <c r="B278" s="1" t="n"/>
-      <c r="C278" s="1" t="inlineStr">
-        <is>
-          <t>Y3</t>
-        </is>
-      </c>
+      <c r="C278" s="1" t="n"/>
       <c r="D278" s="1" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E278" t="n">
-        <v>0.485</v>
+        <v>2.6325</v>
       </c>
       <c r="F278" t="n">
-        <v>2.4875</v>
+        <v>0.01</v>
       </c>
       <c r="G278" t="n">
-        <v>131.6875</v>
+        <v>1106.4375</v>
       </c>
       <c r="H278" t="n">
-        <v>600.8125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279">
@@ -16323,39 +17059,43 @@
       <c r="B279" s="1" t="n"/>
       <c r="C279" s="1" t="n"/>
       <c r="D279" s="1" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E279" t="n">
-        <v>0.3725</v>
+        <v>3.2575</v>
       </c>
       <c r="F279" t="n">
-        <v>4.66</v>
+        <v>0.01</v>
       </c>
       <c r="G279" t="n">
-        <v>103.5625</v>
+        <v>1336.9375</v>
       </c>
       <c r="H279" t="n">
-        <v>1128.375</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n"/>
       <c r="B280" s="1" t="n"/>
-      <c r="C280" s="1" t="n"/>
+      <c r="C280" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
       <c r="D280" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E280" t="n">
-        <v>0.2075</v>
+        <v>2.63</v>
       </c>
       <c r="F280" t="n">
-        <v>0.62</v>
+        <v>2.3275</v>
       </c>
       <c r="G280" t="n">
-        <v>55.125</v>
+        <v>879.125</v>
       </c>
       <c r="H280" t="n">
-        <v>153.3125</v>
+        <v>753.625</v>
       </c>
     </row>
     <row r="281">
@@ -16363,19 +17103,19 @@
       <c r="B281" s="1" t="n"/>
       <c r="C281" s="1" t="n"/>
       <c r="D281" s="1" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E281" t="n">
-        <v>0.1175</v>
+        <v>2.8675</v>
       </c>
       <c r="F281" t="n">
-        <v>0.7524999999999999</v>
+        <v>1.055</v>
       </c>
       <c r="G281" t="n">
-        <v>33.125</v>
+        <v>957.25</v>
       </c>
       <c r="H281" t="n">
-        <v>182.8125</v>
+        <v>336</v>
       </c>
     </row>
     <row r="282">
@@ -16383,19 +17123,19 @@
       <c r="B282" s="1" t="n"/>
       <c r="C282" s="1" t="n"/>
       <c r="D282" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E282" t="n">
-        <v>0.13</v>
+        <v>3.995</v>
       </c>
       <c r="F282" t="n">
-        <v>0.9125</v>
+        <v>0.21</v>
       </c>
       <c r="G282" t="n">
-        <v>36.1875</v>
+        <v>1299.25</v>
       </c>
       <c r="H282" t="n">
-        <v>220.5625</v>
+        <v>68.625</v>
       </c>
     </row>
     <row r="283">
@@ -16403,19 +17143,19 @@
       <c r="B283" s="1" t="n"/>
       <c r="C283" s="1" t="n"/>
       <c r="D283" s="1" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E283" t="n">
-        <v>0.09</v>
+        <v>3.5225</v>
       </c>
       <c r="F283" t="n">
-        <v>0.9175</v>
+        <v>0.34</v>
       </c>
       <c r="G283" t="n">
-        <v>24.0625</v>
+        <v>1154.5</v>
       </c>
       <c r="H283" t="n">
-        <v>220.25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="284">
@@ -16423,19 +17163,19 @@
       <c r="B284" s="1" t="n"/>
       <c r="C284" s="1" t="n"/>
       <c r="D284" s="1" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E284" t="n">
-        <v>0.0825</v>
+        <v>1.44</v>
       </c>
       <c r="F284" t="n">
-        <v>0.42</v>
+        <v>0.11</v>
       </c>
       <c r="G284" t="n">
-        <v>23.3125</v>
+        <v>462</v>
       </c>
       <c r="H284" t="n">
-        <v>100.1875</v>
+        <v>36.625</v>
       </c>
     </row>
     <row r="285">
@@ -16443,19 +17183,19 @@
       <c r="B285" s="1" t="n"/>
       <c r="C285" s="1" t="n"/>
       <c r="D285" s="1" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E285" t="n">
-        <v>0.11</v>
+        <v>1.205</v>
       </c>
       <c r="F285" t="n">
-        <v>0.5075</v>
+        <v>0.0575</v>
       </c>
       <c r="G285" t="n">
-        <v>29.625</v>
+        <v>383.375</v>
       </c>
       <c r="H285" t="n">
-        <v>118</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="286">
@@ -16463,19 +17203,19 @@
       <c r="B286" s="1" t="n"/>
       <c r="C286" s="1" t="n"/>
       <c r="D286" s="1" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E286" t="n">
-        <v>0.2025</v>
+        <v>0.8575</v>
       </c>
       <c r="F286" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.0225</v>
       </c>
       <c r="G286" t="n">
-        <v>54.875</v>
+        <v>275.875</v>
       </c>
       <c r="H286" t="n">
-        <v>216.4375</v>
+        <v>7.125</v>
       </c>
     </row>
     <row r="287">
@@ -16483,19 +17223,19 @@
       <c r="B287" s="1" t="n"/>
       <c r="C287" s="1" t="n"/>
       <c r="D287" s="1" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E287" t="n">
-        <v>0.1725</v>
+        <v>0.965</v>
       </c>
       <c r="F287" t="n">
-        <v>0.9925</v>
+        <v>0.0275</v>
       </c>
       <c r="G287" t="n">
-        <v>47.8125</v>
+        <v>318.125</v>
       </c>
       <c r="H287" t="n">
-        <v>224.1875</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="288">
@@ -16503,19 +17243,19 @@
       <c r="B288" s="1" t="n"/>
       <c r="C288" s="1" t="n"/>
       <c r="D288" s="1" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E288" t="n">
-        <v>0.1825</v>
+        <v>0.585</v>
       </c>
       <c r="F288" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="G288" t="n">
-        <v>46.625</v>
+        <v>180.25</v>
       </c>
       <c r="H288" t="n">
-        <v>216.4375</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="289">
@@ -16523,43 +17263,39 @@
       <c r="B289" s="1" t="n"/>
       <c r="C289" s="1" t="n"/>
       <c r="D289" s="1" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E289" t="n">
-        <v>0.26</v>
+        <v>0.915</v>
       </c>
       <c r="F289" t="n">
-        <v>2.86</v>
+        <v>0.02</v>
       </c>
       <c r="G289" t="n">
-        <v>71.125</v>
+        <v>288.375</v>
       </c>
       <c r="H289" t="n">
-        <v>696.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n"/>
       <c r="B290" s="1" t="n"/>
-      <c r="C290" s="1" t="inlineStr">
-        <is>
-          <t>Y4</t>
-        </is>
-      </c>
+      <c r="C290" s="1" t="n"/>
       <c r="D290" s="1" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E290" t="n">
-        <v>0.335</v>
+        <v>1.5</v>
       </c>
       <c r="F290" t="n">
-        <v>6.47</v>
+        <v>0.0325</v>
       </c>
       <c r="G290" t="n">
-        <v>69.3125</v>
+        <v>477.5</v>
       </c>
       <c r="H290" t="n">
-        <v>1226.1875</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="291">
@@ -16567,19 +17303,19 @@
       <c r="B291" s="1" t="n"/>
       <c r="C291" s="1" t="n"/>
       <c r="D291" s="1" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E291" t="n">
-        <v>0.2375</v>
+        <v>1.23</v>
       </c>
       <c r="F291" t="n">
-        <v>7.7525</v>
+        <v>0.0375</v>
       </c>
       <c r="G291" t="n">
-        <v>50.8125</v>
+        <v>374.75</v>
       </c>
       <c r="H291" t="n">
-        <v>1483.3125</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="292">
@@ -16587,19 +17323,19 @@
       <c r="B292" s="1" t="n"/>
       <c r="C292" s="1" t="n"/>
       <c r="D292" s="1" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E292" t="n">
-        <v>0.2075</v>
+        <v>1.46</v>
       </c>
       <c r="F292" t="n">
-        <v>9.885</v>
+        <v>0.045</v>
       </c>
       <c r="G292" t="n">
-        <v>44.5625</v>
+        <v>458</v>
       </c>
       <c r="H292" t="n">
-        <v>1883.625</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="293">
@@ -16607,39 +17343,43 @@
       <c r="B293" s="1" t="n"/>
       <c r="C293" s="1" t="n"/>
       <c r="D293" s="1" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E293" t="n">
-        <v>0.205</v>
+        <v>1.7075</v>
       </c>
       <c r="F293" t="n">
-        <v>9.4825</v>
+        <v>0.1175</v>
       </c>
       <c r="G293" t="n">
-        <v>42.3125</v>
+        <v>540</v>
       </c>
       <c r="H293" t="n">
-        <v>1818.1875</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n"/>
       <c r="B294" s="1" t="n"/>
-      <c r="C294" s="1" t="n"/>
+      <c r="C294" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
       <c r="D294" s="1" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E294" t="n">
-        <v>0.1125</v>
+        <v>0.485</v>
       </c>
       <c r="F294" t="n">
-        <v>5.22</v>
+        <v>2.4875</v>
       </c>
       <c r="G294" t="n">
-        <v>23.125</v>
+        <v>131.6875</v>
       </c>
       <c r="H294" t="n">
-        <v>999.25</v>
+        <v>600.8125</v>
       </c>
     </row>
     <row r="295">
@@ -16647,19 +17387,19 @@
       <c r="B295" s="1" t="n"/>
       <c r="C295" s="1" t="n"/>
       <c r="D295" s="1" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E295" t="n">
-        <v>0.235</v>
+        <v>0.3725</v>
       </c>
       <c r="F295" t="n">
-        <v>7.4825</v>
+        <v>4.66</v>
       </c>
       <c r="G295" t="n">
-        <v>50.375</v>
+        <v>103.5625</v>
       </c>
       <c r="H295" t="n">
-        <v>1431.4375</v>
+        <v>1128.375</v>
       </c>
     </row>
     <row r="296">
@@ -16667,19 +17407,19 @@
       <c r="B296" s="1" t="n"/>
       <c r="C296" s="1" t="n"/>
       <c r="D296" s="1" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E296" t="n">
-        <v>0.3725</v>
+        <v>0.2075</v>
       </c>
       <c r="F296" t="n">
-        <v>11.565</v>
+        <v>0.62</v>
       </c>
       <c r="G296" t="n">
-        <v>81.0625</v>
+        <v>55.125</v>
       </c>
       <c r="H296" t="n">
-        <v>2217</v>
+        <v>153.3125</v>
       </c>
     </row>
     <row r="297">
@@ -16687,19 +17427,19 @@
       <c r="B297" s="1" t="n"/>
       <c r="C297" s="1" t="n"/>
       <c r="D297" s="1" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E297" t="n">
-        <v>0.3375</v>
+        <v>0.1175</v>
       </c>
       <c r="F297" t="n">
-        <v>11.11</v>
+        <v>0.7524999999999999</v>
       </c>
       <c r="G297" t="n">
-        <v>73</v>
+        <v>33.125</v>
       </c>
       <c r="H297" t="n">
-        <v>2166.6875</v>
+        <v>182.8125</v>
       </c>
     </row>
     <row r="298">
@@ -16707,19 +17447,19 @@
       <c r="B298" s="1" t="n"/>
       <c r="C298" s="1" t="n"/>
       <c r="D298" s="1" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="F298" t="n">
-        <v>10.2725</v>
+        <v>0.9125</v>
       </c>
       <c r="G298" t="n">
-        <v>83.5625</v>
+        <v>36.1875</v>
       </c>
       <c r="H298" t="n">
-        <v>2000.25</v>
+        <v>220.5625</v>
       </c>
     </row>
     <row r="299">
@@ -16727,43 +17467,39 @@
       <c r="B299" s="1" t="n"/>
       <c r="C299" s="1" t="n"/>
       <c r="D299" s="1" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E299" t="n">
-        <v>0.3625</v>
+        <v>0.09</v>
       </c>
       <c r="F299" t="n">
-        <v>19.595</v>
+        <v>0.9175</v>
       </c>
       <c r="G299" t="n">
-        <v>78.875</v>
+        <v>24.0625</v>
       </c>
       <c r="H299" t="n">
-        <v>3758.375</v>
+        <v>220.25</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n"/>
       <c r="B300" s="1" t="n"/>
-      <c r="C300" s="1" t="inlineStr">
-        <is>
-          <t>Y5</t>
-        </is>
-      </c>
+      <c r="C300" s="1" t="n"/>
       <c r="D300" s="1" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>0.0825</v>
       </c>
       <c r="F300" t="n">
-        <v>3.3325</v>
+        <v>0.42</v>
       </c>
       <c r="G300" t="n">
-        <v>0</v>
+        <v>23.3125</v>
       </c>
       <c r="H300" t="n">
-        <v>502.125</v>
+        <v>100.1875</v>
       </c>
     </row>
     <row r="301">
@@ -16771,19 +17507,19 @@
       <c r="B301" s="1" t="n"/>
       <c r="C301" s="1" t="n"/>
       <c r="D301" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F301" t="n">
-        <v>3.07</v>
+        <v>0.5075</v>
       </c>
       <c r="G301" t="n">
-        <v>0</v>
+        <v>29.625</v>
       </c>
       <c r="H301" t="n">
-        <v>457.75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="302">
@@ -16791,19 +17527,19 @@
       <c r="B302" s="1" t="n"/>
       <c r="C302" s="1" t="n"/>
       <c r="D302" s="1" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E302" t="n">
-        <v>0</v>
+        <v>0.2025</v>
       </c>
       <c r="F302" t="n">
-        <v>1.6075</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G302" t="n">
-        <v>0</v>
+        <v>54.875</v>
       </c>
       <c r="H302" t="n">
-        <v>233.875</v>
+        <v>216.4375</v>
       </c>
     </row>
     <row r="303">
@@ -16811,19 +17547,19 @@
       <c r="B303" s="1" t="n"/>
       <c r="C303" s="1" t="n"/>
       <c r="D303" s="1" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E303" t="n">
-        <v>0.0025</v>
+        <v>0.1725</v>
       </c>
       <c r="F303" t="n">
-        <v>2.1775</v>
+        <v>0.9925</v>
       </c>
       <c r="G303" t="n">
-        <v>0.5</v>
+        <v>47.8125</v>
       </c>
       <c r="H303" t="n">
-        <v>312.125</v>
+        <v>224.1875</v>
       </c>
     </row>
     <row r="304">
@@ -16831,19 +17567,19 @@
       <c r="B304" s="1" t="n"/>
       <c r="C304" s="1" t="n"/>
       <c r="D304" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>0.1825</v>
       </c>
       <c r="F304" t="n">
-        <v>2.885</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G304" t="n">
-        <v>0</v>
+        <v>46.625</v>
       </c>
       <c r="H304" t="n">
-        <v>405.75</v>
+        <v>216.4375</v>
       </c>
     </row>
     <row r="305">
@@ -16851,39 +17587,43 @@
       <c r="B305" s="1" t="n"/>
       <c r="C305" s="1" t="n"/>
       <c r="D305" s="1" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="F305" t="n">
-        <v>2.715</v>
+        <v>2.86</v>
       </c>
       <c r="G305" t="n">
-        <v>0</v>
+        <v>71.125</v>
       </c>
       <c r="H305" t="n">
-        <v>364.125</v>
+        <v>696.25</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n"/>
       <c r="B306" s="1" t="n"/>
-      <c r="C306" s="1" t="n"/>
+      <c r="C306" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
       <c r="D306" s="1" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>0.335</v>
       </c>
       <c r="F306" t="n">
-        <v>2.1175</v>
+        <v>6.47</v>
       </c>
       <c r="G306" t="n">
-        <v>0</v>
+        <v>69.3125</v>
       </c>
       <c r="H306" t="n">
-        <v>274.75</v>
+        <v>1226.1875</v>
       </c>
     </row>
     <row r="307">
@@ -16891,54 +17631,626 @@
       <c r="B307" s="1" t="n"/>
       <c r="C307" s="1" t="n"/>
       <c r="D307" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="F307" t="n">
+        <v>7.7525</v>
+      </c>
+      <c r="G307" t="n">
+        <v>50.8125</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1483.3125</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n"/>
+      <c r="B308" s="1" t="n"/>
+      <c r="C308" s="1" t="n"/>
+      <c r="D308" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.2075</v>
+      </c>
+      <c r="F308" t="n">
+        <v>9.885</v>
+      </c>
+      <c r="G308" t="n">
+        <v>44.5625</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1883.625</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n"/>
+      <c r="B309" s="1" t="n"/>
+      <c r="C309" s="1" t="n"/>
+      <c r="D309" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F309" t="n">
+        <v>9.4825</v>
+      </c>
+      <c r="G309" t="n">
+        <v>42.3125</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1818.1875</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n"/>
+      <c r="B310" s="1" t="n"/>
+      <c r="C310" s="1" t="n"/>
+      <c r="D310" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="F310" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="G310" t="n">
+        <v>23.125</v>
+      </c>
+      <c r="H310" t="n">
+        <v>999.25</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n"/>
+      <c r="B311" s="1" t="n"/>
+      <c r="C311" s="1" t="n"/>
+      <c r="D311" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F311" t="n">
+        <v>7.4825</v>
+      </c>
+      <c r="G311" t="n">
+        <v>50.375</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1431.4375</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n"/>
+      <c r="B312" s="1" t="n"/>
+      <c r="C312" s="1" t="n"/>
+      <c r="D312" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="F312" t="n">
+        <v>11.565</v>
+      </c>
+      <c r="G312" t="n">
+        <v>81.0625</v>
+      </c>
+      <c r="H312" t="n">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n"/>
+      <c r="B313" s="1" t="n"/>
+      <c r="C313" s="1" t="n"/>
+      <c r="D313" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="F313" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="G313" t="n">
+        <v>73</v>
+      </c>
+      <c r="H313" t="n">
+        <v>2166.6875</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n"/>
+      <c r="B314" s="1" t="n"/>
+      <c r="C314" s="1" t="n"/>
+      <c r="D314" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F314" t="n">
+        <v>10.2725</v>
+      </c>
+      <c r="G314" t="n">
+        <v>83.5625</v>
+      </c>
+      <c r="H314" t="n">
+        <v>2000.25</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n"/>
+      <c r="B315" s="1" t="n"/>
+      <c r="C315" s="1" t="n"/>
+      <c r="D315" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="E307" t="n">
-        <v>0</v>
-      </c>
-      <c r="F307" t="n">
+      <c r="E315" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="F315" t="n">
+        <v>19.595</v>
+      </c>
+      <c r="G315" t="n">
+        <v>78.875</v>
+      </c>
+      <c r="H315" t="n">
+        <v>3758.375</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n"/>
+      <c r="B316" s="1" t="n"/>
+      <c r="C316" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
+      <c r="D316" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>3.3325</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H316" t="n">
+        <v>502.125</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n"/>
+      <c r="B317" s="1" t="n"/>
+      <c r="C317" s="1" t="n"/>
+      <c r="D317" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" t="n">
+        <v>457.75</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n"/>
+      <c r="B318" s="1" t="n"/>
+      <c r="C318" s="1" t="n"/>
+      <c r="D318" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>1.6075</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="n">
+        <v>233.875</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n"/>
+      <c r="B319" s="1" t="n"/>
+      <c r="C319" s="1" t="n"/>
+      <c r="D319" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2.1775</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H319" t="n">
+        <v>312.125</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n"/>
+      <c r="B320" s="1" t="n"/>
+      <c r="C320" s="1" t="n"/>
+      <c r="D320" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0</v>
+      </c>
+      <c r="H320" t="n">
+        <v>405.75</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n"/>
+      <c r="B321" s="1" t="n"/>
+      <c r="C321" s="1" t="n"/>
+      <c r="D321" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2.715</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0</v>
+      </c>
+      <c r="H321" t="n">
+        <v>364.125</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n"/>
+      <c r="B322" s="1" t="n"/>
+      <c r="C322" s="1" t="n"/>
+      <c r="D322" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2.1175</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0</v>
+      </c>
+      <c r="H322" t="n">
+        <v>274.75</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n"/>
+      <c r="B323" s="1" t="n"/>
+      <c r="C323" s="1" t="n"/>
+      <c r="D323" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+      <c r="F323" t="n">
         <v>4.0025</v>
       </c>
-      <c r="G307" t="n">
-        <v>0</v>
-      </c>
-      <c r="H307" t="n">
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
+      <c r="H323" t="n">
         <v>487.625</v>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" s="1" t="n"/>
+      <c r="B324" s="1" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C324" s="1" t="inlineStr">
+        <is>
+          <t>XX</t>
+        </is>
+      </c>
+      <c r="D324" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E324" t="n">
+        <v>5.3075</v>
+      </c>
+      <c r="F324" t="n">
+        <v>6.9825</v>
+      </c>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n"/>
+      <c r="B325" s="1" t="n"/>
+      <c r="C325" s="1" t="n"/>
+      <c r="D325" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E325" t="n">
+        <v>13.3225</v>
+      </c>
+      <c r="F325" t="n">
+        <v>10.7625</v>
+      </c>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n"/>
+      <c r="B326" s="1" t="n"/>
+      <c r="C326" s="1" t="n"/>
+      <c r="D326" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F326" t="n">
+        <v>14.3225</v>
+      </c>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n"/>
+      <c r="B327" s="1" t="n"/>
+      <c r="C327" s="1" t="n"/>
+      <c r="D327" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F327" t="n">
+        <v>5.7175</v>
+      </c>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n"/>
+      <c r="B328" s="1" t="n"/>
+      <c r="C328" s="1" t="n"/>
+      <c r="D328" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F328" t="n">
+        <v>6</v>
+      </c>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n"/>
+      <c r="B329" s="1" t="n"/>
+      <c r="C329" s="1" t="n"/>
+      <c r="D329" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.0375</v>
+      </c>
+      <c r="F329" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n"/>
+      <c r="B330" s="1" t="n"/>
+      <c r="C330" s="1" t="n"/>
+      <c r="D330" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="n">
+        <v>5.385</v>
+      </c>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n"/>
+      <c r="B331" s="1" t="n"/>
+      <c r="C331" s="1" t="n"/>
+      <c r="D331" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="n">
+        <v>5.8375</v>
+      </c>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n"/>
+      <c r="B332" s="1" t="n"/>
+      <c r="C332" s="1" t="n"/>
+      <c r="D332" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="n">
+        <v>2.7975</v>
+      </c>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n"/>
+      <c r="B333" s="1" t="n"/>
+      <c r="C333" s="1" t="n"/>
+      <c r="D333" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="n">
+        <v>3.325</v>
+      </c>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n"/>
+      <c r="B334" s="1" t="n"/>
+      <c r="C334" s="1" t="n"/>
+      <c r="D334" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="n">
+        <v>1.6375</v>
+      </c>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n"/>
+      <c r="B335" s="1" t="n"/>
+      <c r="C335" s="1" t="n"/>
+      <c r="D335" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n"/>
+      <c r="B336" s="1" t="n"/>
+      <c r="C336" s="1" t="n"/>
+      <c r="D336" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n"/>
+      <c r="B337" s="1" t="n"/>
+      <c r="C337" s="1" t="n"/>
+      <c r="D337" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n"/>
+      <c r="B338" s="1" t="n"/>
+      <c r="C338" s="1" t="n"/>
+      <c r="D338" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n"/>
+      <c r="B339" s="1" t="n"/>
+      <c r="C339" s="1" t="n"/>
+      <c r="D339" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="n">
+        <v>11.905</v>
+      </c>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="C224:C231"/>
-    <mergeCell ref="C232:C247"/>
-    <mergeCell ref="C188:C201"/>
-    <mergeCell ref="C278:C289"/>
+  <mergeCells count="36">
+    <mergeCell ref="C188:C203"/>
     <mergeCell ref="B4:B79"/>
     <mergeCell ref="B80:B155"/>
     <mergeCell ref="C36:C49"/>
+    <mergeCell ref="A4:A171"/>
     <mergeCell ref="C62:C71"/>
-    <mergeCell ref="C264:C277"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C306:C315"/>
     <mergeCell ref="C126:C137"/>
-    <mergeCell ref="B156:B231"/>
     <mergeCell ref="C96:C111"/>
-    <mergeCell ref="A4:A155"/>
-    <mergeCell ref="A156:A307"/>
+    <mergeCell ref="B324:B339"/>
     <mergeCell ref="C248:C263"/>
-    <mergeCell ref="C290:C299"/>
-    <mergeCell ref="B232:B307"/>
+    <mergeCell ref="B248:B323"/>
+    <mergeCell ref="C204:C217"/>
+    <mergeCell ref="C264:C279"/>
+    <mergeCell ref="C294:C305"/>
+    <mergeCell ref="C230:C239"/>
+    <mergeCell ref="C218:C229"/>
+    <mergeCell ref="B156:B171"/>
     <mergeCell ref="C148:C155"/>
     <mergeCell ref="C20:C35"/>
     <mergeCell ref="C112:C125"/>
+    <mergeCell ref="A172:A339"/>
     <mergeCell ref="C50:C61"/>
+    <mergeCell ref="C316:C323"/>
     <mergeCell ref="C172:C187"/>
-    <mergeCell ref="C202:C213"/>
+    <mergeCell ref="B172:B247"/>
     <mergeCell ref="C72:C79"/>
     <mergeCell ref="C4:C19"/>
     <mergeCell ref="C138:C147"/>
-    <mergeCell ref="C214:C223"/>
+    <mergeCell ref="C324:C339"/>
+    <mergeCell ref="C280:C293"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C156:C171"/>
-    <mergeCell ref="C300:C307"/>
+    <mergeCell ref="C240:C247"/>
     <mergeCell ref="C80:C95"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -49258,6 +50570,309 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>carrier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>booking_class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>sold</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cp_sold</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cp_revenue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AL1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Y0</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25899150</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17533050</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23293</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7499150</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15053</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3645475</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>81179</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15650950</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18005</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2551550</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AL2</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Y0</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>44109</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25815350</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Y1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>41954</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17481175</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Y2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23323</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7528100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Y3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15211</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3687650</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Y4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>81141</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15634750</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Y5</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>18059</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2554300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49713,7 +51328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -49827,7 +51442,7 @@
         <v>1125</v>
       </c>
       <c r="K2" t="n">
-        <v>3328</v>
+        <v>2672</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -49863,7 +51478,7 @@
         <v>413</v>
       </c>
       <c r="K3" t="n">
-        <v>14323</v>
+        <v>11546</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -49907,7 +51522,7 @@
         <v>3363</v>
       </c>
       <c r="K4" t="n">
-        <v>2366</v>
+        <v>1899</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -49943,7 +51558,7 @@
         <v>1046</v>
       </c>
       <c r="K5" t="n">
-        <v>39940</v>
+        <v>33250</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -49987,7 +51602,7 @@
         <v>3354</v>
       </c>
       <c r="K6" t="n">
-        <v>4913</v>
+        <v>3958</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -50023,7 +51638,7 @@
         <v>1300</v>
       </c>
       <c r="K7" t="n">
-        <v>37455</v>
+        <v>30959</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -50042,7 +51657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -51000,7 +52615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -51221,7 +52836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -52203,379 +53818,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>leg_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>carrier</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>flt_no</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>orig</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>dest</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>gt_sold</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>gt_capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gt_sold_local</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>gt_revenue</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>66781</v>
-      </c>
-      <c r="G2" t="n">
-        <v>80000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28422</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11055229.02638947</v>
-      </c>
-      <c r="J2" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>66813</v>
-      </c>
-      <c r="G3" t="n">
-        <v>80000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>28300</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11066202.02416093</v>
-      </c>
-      <c r="J3" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>201</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>66767</v>
-      </c>
-      <c r="G4" t="n">
-        <v>80000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28316</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11046747.19887269</v>
-      </c>
-      <c r="J4" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>202</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>66733</v>
-      </c>
-      <c r="G5" t="n">
-        <v>80000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>28231</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11049035.35930686</v>
-      </c>
-      <c r="J5" t="n">
-        <v>863.7532821438833</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>111</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>83819</v>
-      </c>
-      <c r="G6" t="n">
-        <v>96000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>45460</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25319545.97360884</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AL1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>112</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>83447</v>
-      </c>
-      <c r="G7" t="n">
-        <v>96000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>44934</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25338347.97583644</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>211</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>83416</v>
-      </c>
-      <c r="G8" t="n">
-        <v>96000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>44965</v>
-      </c>
-      <c r="I8" t="n">
-        <v>25293427.80112508</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AL2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>212</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ORD</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>LAX</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>83834</v>
-      </c>
-      <c r="G9" t="n">
-        <v>96000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>45332</v>
-      </c>
-      <c r="I9" t="n">
-        <v>25312114.64069102</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1739.79933695373</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>